--- a/用例数据/沪权/备兑后行权/测试结果.xlsx
+++ b/用例数据/沪权/备兑后行权/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1249,11 +1249,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ86"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3947,7 +3953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/用例数据/沪权/备兑后行权/测试结果.xlsx
+++ b/用例数据/沪权/备兑后行权/测试结果.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="stkoptionsettlement" sheetId="5" r:id="rId2"/>
-    <sheet name="futuretradinglog" sheetId="4" r:id="rId3"/>
-    <sheet name="futureposition" sheetId="3" r:id="rId4"/>
-    <sheet name="futurepositiondetail" sheetId="2" r:id="rId5"/>
+    <sheet name="futuretradinglog" sheetId="4" r:id="rId2"/>
+    <sheet name="unprocessedreckoningresult" sheetId="6" r:id="rId3"/>
+    <sheet name="unprocessedreckoningresulthis" sheetId="7" r:id="rId4"/>
+    <sheet name="futureposition" sheetId="3" r:id="rId5"/>
+    <sheet name="futurepositiondetail" sheetId="2" r:id="rId6"/>
+    <sheet name="futurepositiondetail2022" sheetId="8" r:id="rId7"/>
+    <sheet name="futureposition2022" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">futuretradinglog!$A$1:$CX$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">stkoptionsettlement!$A$1:$BH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">futuretradinglog!$A$1:$CV$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="394">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -901,19 +903,322 @@
     <t>futuretradinglog</t>
   </si>
   <si>
+    <t>ORDERTYPE</t>
+  </si>
+  <si>
+    <t>TRADETYPE</t>
+  </si>
+  <si>
+    <t>STKTYPE</t>
+  </si>
+  <si>
+    <t>STANDARDCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>TRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>TRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>FUNDPROCESSDAYS</t>
+  </si>
+  <si>
+    <t>STKDELIVERYDAYS</t>
+  </si>
+  <si>
+    <t>UNDELIVERYFUNDUSEFLAG</t>
+  </si>
+  <si>
+    <t>UNDELIVERYSTKUSEFLAG</t>
+  </si>
+  <si>
+    <t>ACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>FULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>BANKCONTRACTNUM</t>
+  </si>
+  <si>
+    <t>USINGBANKFUNDFLAG</t>
+  </si>
+  <si>
+    <t>LOCALUSABLEAMT</t>
+  </si>
+  <si>
+    <t>CURRENTFUNDFLAG</t>
+  </si>
+  <si>
+    <t>OFFERTIME</t>
+  </si>
+  <si>
+    <t>BANKDELIVERYDAYS</t>
+  </si>
+  <si>
+    <t>CONFIRMRESULT</t>
+  </si>
+  <si>
+    <t>CONFIRMTIME</t>
+  </si>
+  <si>
+    <t>CHARGETYPE</t>
+  </si>
+  <si>
+    <t>RECKONINGCHECKFLAG</t>
+  </si>
+  <si>
+    <t>STKRECKCHKFLAG</t>
+  </si>
+  <si>
+    <t>CONFIRMFEE</t>
+  </si>
+  <si>
+    <t>FIRSTKNOCKQTY</t>
+  </si>
+  <si>
+    <t>FIRSTRECKONINGAMT</t>
+  </si>
+  <si>
+    <t>AGENCYFEE</t>
+  </si>
+  <si>
+    <t>EXCHERRORCODE</t>
+  </si>
+  <si>
+    <t>ORDERSTKID</t>
+  </si>
+  <si>
+    <t>INTERNALBIZMARK</t>
+  </si>
+  <si>
+    <t>CREDITSTOCKFLAG</t>
+  </si>
+  <si>
+    <t>RMSTRADEID</t>
+  </si>
+  <si>
+    <t>SETTLEMENTMETHOD</t>
+  </si>
+  <si>
+    <t>INTERNALORDERTYPE</t>
+  </si>
+  <si>
+    <t>DELIVERYTYPE</t>
+  </si>
+  <si>
+    <t>CREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>SUBCLIENTID</t>
+  </si>
+  <si>
+    <t>EXTERIORACCTID</t>
+  </si>
+  <si>
+    <t>MARKETVALUEFLAG</t>
+  </si>
+  <si>
+    <t>REPURCHASEDAY</t>
+  </si>
+  <si>
+    <t>OLDKNOCKTIME</t>
+  </si>
+  <si>
+    <t>ORIGCONTRACTNUM</t>
+  </si>
+  <si>
+    <t>TRADECURRENCYID</t>
+  </si>
+  <si>
+    <t>EXCHRATE</t>
+  </si>
+  <si>
+    <t>TRADERECKONINGAMT</t>
+  </si>
+  <si>
+    <t>SETTLEKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEFULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>SETTLESTAMPTAX</t>
+  </si>
+  <si>
+    <t>SETTLECOMMISION</t>
+  </si>
+  <si>
+    <t>SETTLETRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLERECKONINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLETRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>SETTLEHANDLINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLESTKMNGFEE</t>
+  </si>
+  <si>
+    <t>SETTLEEXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLEVENTUREFEE</t>
+  </si>
+  <si>
+    <t>SECUAMT</t>
+  </si>
+  <si>
+    <t>SETTLESECUAMT</t>
+  </si>
+  <si>
+    <t>PERMITPHONE</t>
+  </si>
+  <si>
+    <t>OPERATIONMAC</t>
+  </si>
+  <si>
+    <t>SHAREATTR</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>FIRSTCASHSETTLEDATE</t>
+  </si>
+  <si>
+    <t>DELAYDELIVERYFLAG</t>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>EXEC_30050435</t>
+  </si>
+  <si>
+    <t>焦振鹏沪权</t>
+  </si>
+  <si>
+    <t>4.4000</t>
+  </si>
+  <si>
+    <t>20221216000000</t>
+  </si>
+  <si>
+    <t>1.300</t>
+  </si>
+  <si>
+    <t>43998.700</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>208_002_036</t>
+  </si>
+  <si>
+    <t>13046.600</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>30050437</t>
+  </si>
+  <si>
+    <t>NONDVP</t>
+  </si>
+  <si>
+    <t>20221219000000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>OTE</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>DELIVERYFLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ZBD30050241</t>
+  </si>
+  <si>
+    <t>20221216235959</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>-6115.00</t>
+  </si>
+  <si>
+    <t>0.58000000</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>30050240</t>
+  </si>
+  <si>
     <t>10003527</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10003527</t>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>30050436</t>
+  </si>
+  <si>
+    <t>20221217162300</t>
+  </si>
+  <si>
+    <t>997296518.700</t>
+  </si>
+  <si>
+    <t>30050580</t>
+  </si>
+  <si>
+    <t>30050582</t>
+  </si>
+  <si>
+    <t>KNOCKCODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A117212005</t>
+    <t>ORDERID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A117212005</t>
+    <t>CONTRACTNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_30050435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNOCKCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNOCKCODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,13 +1554,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -3951,786 +4257,1175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:CY5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CW1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>375</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="BH4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="BN4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CH4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>71</v>
+      <c r="CI4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:BH1"/>
+  <autoFilter ref="A1:CV1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4738,664 +5433,1236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX5"/>
+  <dimension ref="A1:DA18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="18" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>202</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DD27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="AS1" s="1" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="BW1" s="1" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>140</v>
+        <v>348</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>161</v>
+        <v>349</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="BG2" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>274</v>
+        <v>70</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="BM2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>71</v>
+      <c r="CM2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>76</v>
@@ -5403,737 +6670,53 @@
       <c r="CW2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DD2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CS4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CW4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CX4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CS5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CU5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CW5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CX5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="3" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:CX1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6372,10 +6955,10 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>61</v>
@@ -6384,7 +6967,7 @@
         <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>62</v>
@@ -6399,7 +6982,7 @@
         <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>67</v>
@@ -6411,13 +6994,13 @@
         <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>71</v>
@@ -6459,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>74</v>
@@ -6483,7 +7066,7 @@
         <v>72</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>74</v>
@@ -6523,6 +7106,296 @@
       </c>
       <c r="BC2" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6532,277 +7405,1020 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>